--- a/Assignment 4/Systems Theory.xlsx
+++ b/Assignment 4/Systems Theory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/jtnfx_umsystem_edu/Documents/Fall 2020/Software 4320/Assignment 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/jtnfx_umsystem_edu/Documents/Fall 2020/Software 4320/CS4320_Assignments/Assignment 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B2598F56-D368-EC4F-914F-C6F56D2C8836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DCDDBD62-377F-B24D-B0AF-A5C1FC58526F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{B2598F56-D368-EC4F-914F-C6F56D2C8836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B6AF321-EEBC-E04E-894D-BF1C2CFE17A1}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BA3C1D3B-EB8B-4D41-B960-C22A59C87462}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{BA3C1D3B-EB8B-4D41-B960-C22A59C87462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Ethocal Quandry</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+  <si>
+    <t>Ethical Quandry</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Client/Employer</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Judgement</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Colleague</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Engineers who made software that distributes personal information</t>
+  </si>
+  <si>
+    <t>Retailer companies that sells customer information</t>
+  </si>
+  <si>
+    <t>Companies that buys personal information</t>
+  </si>
+  <si>
+    <t>Condifentiality</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Intellectual Property Rights</t>
+  </si>
+  <si>
+    <t>Computer Misuse</t>
   </si>
 </sst>
 </file>
@@ -71,8 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,17 +441,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57D9C88-83F6-B947-9348-A55EE770388D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="193" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
